--- a/test_suites/hiresense_keywords.xlsx
+++ b/test_suites/hiresense_keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karthik.chillara\PycharmProjects\KeywordDrivenDemo0905\test_suites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7888DDE0-C10E-4344-8D94-3888592C87EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FFF6C7-60B8-41E4-AA14-AECA6007E900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5E511BBB-2043-451E-96DE-FDFE2BA19E18}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="78">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -268,6 +268,15 @@
   </si>
   <si>
     <t>Ranking text correct</t>
+  </si>
+  <si>
+    <t>TC007</t>
+  </si>
+  <si>
+    <t>User is logged out</t>
+  </si>
+  <si>
+    <t>//button[contains(text(),'Logout')]</t>
   </si>
 </sst>
 </file>
@@ -672,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5733B52E-2986-4810-B69F-F29D7C0E05F3}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1460,6 +1469,82 @@
         <v>48</v>
       </c>
     </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="2">
+        <v>3</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="2">
+        <v>4</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -1469,8 +1554,9 @@
     <hyperlink ref="E13" r:id="rId4" xr:uid="{71C2BC0D-4FA8-4775-A186-B21A02C3FB53}"/>
     <hyperlink ref="E24" r:id="rId5" xr:uid="{0FD4941C-BC32-41F5-AFE9-890D4D69F626}"/>
     <hyperlink ref="E29" r:id="rId6" xr:uid="{87AAF98D-D558-49B9-A2D7-401992732E67}"/>
+    <hyperlink ref="E41" r:id="rId7" xr:uid="{055EE349-DDC4-4A74-967A-AA0A0F66F639}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId8"/>
 </worksheet>
 </file>
--- a/test_suites/hiresense_keywords.xlsx
+++ b/test_suites/hiresense_keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karthik.chillara\PycharmProjects\KeywordDrivenDemo0905\test_suites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FFF6C7-60B8-41E4-AA14-AECA6007E900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1717108-F25F-40AD-A242-0AF2A0156F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5E511BBB-2043-451E-96DE-FDFE2BA19E18}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="84">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -154,12 +154,6 @@
   <si>
     <t xml:space="preserve">
 //div[contains(text(),'Drop your resume here or click to browse')]</t>
-  </si>
-  <si>
-    <t>Senior Systems Engineer</t>
-  </si>
-  <si>
-    <t>Agile</t>
   </si>
   <si>
     <t>Upload</t>
@@ -198,21 +192,12 @@
     <t>//label[contains(text(),'Sort')]/following-sibling::select[@class="form-control"]</t>
   </si>
   <si>
-    <t>Mid level (3-6 yrs)</t>
-  </si>
-  <si>
     <t>By Name (Z-A)</t>
   </si>
   <si>
     <t>Sort selected</t>
   </si>
   <si>
-    <t>S Giridharan</t>
-  </si>
-  <si>
-    <t>Functional testing</t>
-  </si>
-  <si>
     <t>All levels</t>
   </si>
   <si>
@@ -277,6 +262,39 @@
   </si>
   <si>
     <t>//button[contains(text(),'Logout')]</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Senior level (7+ yrs)</t>
+  </si>
+  <si>
+    <t>//a[contains(text(), 'Match Another Job Requisition')]</t>
+  </si>
+  <si>
+    <t>Navigated to job requistion</t>
+  </si>
+  <si>
+    <t>//div[contains(text(),'Automation Engineer')]/following::button[contains(text(),'Match')][2]</t>
+  </si>
+  <si>
+    <t>//div[contains(text(),'Senior Java Developer')]</t>
+  </si>
+  <si>
+    <t>Senior Java Developer</t>
+  </si>
+  <si>
+    <t>//div[contains(text(),'Senior Automation Engineer')]</t>
+  </si>
+  <si>
+    <t>Senior Automation Engineer</t>
+  </si>
+  <si>
+    <t>Position text correct</t>
   </si>
 </sst>
 </file>
@@ -681,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5733B52E-2986-4810-B69F-F29D7C0E05F3}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -916,16 +934,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1012,16 +1030,16 @@
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -1035,13 +1053,13 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -1055,7 +1073,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
@@ -1076,7 +1094,7 @@
         <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>29</v>
@@ -1093,10 +1111,10 @@
         <v>30</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>31</v>
@@ -1113,13 +1131,13 @@
         <v>30</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -1133,13 +1151,13 @@
         <v>30</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1226,13 +1244,13 @@
         <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>36</v>
@@ -1322,16 +1340,16 @@
         <v>5</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -1345,13 +1363,13 @@
         <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -1365,11 +1383,11 @@
         <v>7</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -1383,7 +1401,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>35</v>
@@ -1397,16 +1415,16 @@
         <v>9</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -1417,19 +1435,19 @@
         <v>10</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -1437,16 +1455,16 @@
         <v>11</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
@@ -1463,86 +1481,182 @@
         <v>47</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="B41" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>12</v>
+        <v>45</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="B42" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="2">
         <v>15</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="2">
-        <v>3</v>
-      </c>
       <c r="C43" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="2">
+        <v>16</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="2">
+        <v>17</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="2">
+        <v>3</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" s="2">
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="2">
         <v>4</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2" t="s">
-        <v>76</v>
+      <c r="C49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1554,7 +1668,7 @@
     <hyperlink ref="E13" r:id="rId4" xr:uid="{71C2BC0D-4FA8-4775-A186-B21A02C3FB53}"/>
     <hyperlink ref="E24" r:id="rId5" xr:uid="{0FD4941C-BC32-41F5-AFE9-890D4D69F626}"/>
     <hyperlink ref="E29" r:id="rId6" xr:uid="{87AAF98D-D558-49B9-A2D7-401992732E67}"/>
-    <hyperlink ref="E41" r:id="rId7" xr:uid="{055EE349-DDC4-4A74-967A-AA0A0F66F639}"/>
+    <hyperlink ref="E46" r:id="rId7" xr:uid="{6D5A134E-7E6B-4812-B55B-600F8ED31FF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId8"/>

--- a/test_suites/hiresense_keywords.xlsx
+++ b/test_suites/hiresense_keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karthik.chillara\PycharmProjects\KeywordDrivenDemo0905\test_suites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1717108-F25F-40AD-A242-0AF2A0156F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387D9592-CEBA-488E-B135-3F75ED724844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5E511BBB-2043-451E-96DE-FDFE2BA19E18}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="91">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -295,6 +295,27 @@
   </si>
   <si>
     <t>Position text correct</t>
+  </si>
+  <si>
+    <t>Execute</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -699,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5733B52E-2986-4810-B69F-F29D7C0E05F3}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -715,7 +736,7 @@
     <col min="6" max="6" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,8 +755,14 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -754,8 +781,14 @@
       <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -774,8 +807,14 @@
       <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -792,8 +831,14 @@
       <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -812,8 +857,14 @@
       <c r="F5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -832,8 +883,14 @@
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -850,8 +907,14 @@
       <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -870,8 +933,14 @@
       <c r="F8" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -890,8 +959,14 @@
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -908,8 +983,14 @@
       <c r="F10" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -925,8 +1006,14 @@
       <c r="F11" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -945,8 +1032,14 @@
       <c r="F12" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -965,8 +1058,14 @@
       <c r="F13" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -985,8 +1084,14 @@
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -1003,8 +1108,14 @@
       <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -1021,8 +1132,14 @@
       <c r="F16" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="G16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
@@ -1041,8 +1158,14 @@
       <c r="F17" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="G17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
@@ -1061,8 +1184,14 @@
       <c r="F18" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -1079,8 +1208,14 @@
       <c r="F19" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1099,8 +1234,14 @@
       <c r="F20" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="G20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -1119,8 +1260,14 @@
       <c r="F21" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="G21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -1139,8 +1286,14 @@
       <c r="F22" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="G22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -1159,8 +1312,14 @@
       <c r="F23" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
@@ -1179,8 +1338,14 @@
       <c r="F24" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -1199,8 +1364,14 @@
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
@@ -1217,8 +1388,14 @@
       <c r="F26" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -1235,8 +1412,14 @@
       <c r="F27" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="G27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
@@ -1255,8 +1438,14 @@
       <c r="F28" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
@@ -1275,8 +1464,14 @@
       <c r="F29" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
@@ -1295,8 +1490,14 @@
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
@@ -1313,8 +1514,14 @@
       <c r="F31" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
@@ -1331,8 +1538,14 @@
       <c r="F32" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="G32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -1351,8 +1564,14 @@
       <c r="F33" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>37</v>
       </c>
@@ -1371,8 +1590,14 @@
       <c r="F34" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
@@ -1389,8 +1614,14 @@
       <c r="F35" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="G35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
@@ -1406,8 +1637,14 @@
       <c r="F36" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
@@ -1426,8 +1663,14 @@
       <c r="F37" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
@@ -1446,8 +1689,14 @@
       <c r="F38" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -1466,8 +1715,14 @@
       <c r="F39" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="G39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>37</v>
       </c>
@@ -1486,8 +1741,14 @@
       <c r="F40" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="G40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>37</v>
       </c>
@@ -1506,8 +1767,14 @@
       <c r="F41" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>37</v>
       </c>
@@ -1524,8 +1791,14 @@
       <c r="F42" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="G42" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>37</v>
       </c>
@@ -1542,8 +1815,14 @@
       <c r="F43" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>37</v>
       </c>
@@ -1562,8 +1841,14 @@
       <c r="F44" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>37</v>
       </c>
@@ -1582,8 +1867,14 @@
       <c r="F45" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>70</v>
       </c>
@@ -1602,8 +1893,14 @@
       <c r="F46" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>70</v>
       </c>
@@ -1622,8 +1919,14 @@
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G47" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>70</v>
       </c>
@@ -1640,8 +1943,14 @@
       <c r="F48" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G48" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>70</v>
       </c>
@@ -1657,6 +1966,12 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
         <v>71</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
